--- a/google_maps/INPUT_ALL_INCLUDED.xlsx
+++ b/google_maps/INPUT_ALL_INCLUDED.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D41289-25B3-42E3-A6D9-A5618B172840}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831fce9fc7e728a3/Desktop/DE/Y2/scraping/google_maps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F1AA6D-F5CC-446F-8D8F-5EA982FD3BE4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +116,6 @@
     <t>Julianaplein Oost, 1097 DN Amsterdam</t>
   </si>
   <si>
-    <t>ChIJPd2JhH8JxkcRQ8jSHUchci0</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/DwBwFyJx3frhRgVZ6</t>
   </si>
   <si>
@@ -526,13 +528,16 @@
   </si>
   <si>
     <t>ChIJGU-a6R8XxkcR5cxWLxQYpgs</t>
+  </si>
+  <si>
+    <t>ChIJ5_v1Cn8JxkcRRHni2TGk6jY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +556,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,7 +669,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -677,6 +682,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,21 +987,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="139.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="139.7265625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,13 +1021,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1045,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1063,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1081,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1099,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1104,667 +1113,667 @@
         <v>231</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="1">
         <v>253</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="1">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D20" s="7">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
       </c>
       <c r="D23">
         <v>65</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="7">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="7">
         <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="7">
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="7">
         <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="7">
         <v>5</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D30" s="7">
         <v>5</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="7">
         <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="1">
         <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D35" s="1">
         <v>839</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="B37" t="s">
         <v>121</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>122</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
       </c>
       <c r="D37">
         <v>74</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="B38" t="s">
         <v>125</v>
       </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38">
         <v>120</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>128</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
       </c>
       <c r="D39">
         <v>138</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="B42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
       </c>
       <c r="D48">
         <v>42</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="B51" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>145</v>
-      </c>
-      <c r="C51" t="s">
-        <v>146</v>
       </c>
       <c r="D51">
         <v>10</v>
       </c>
       <c r="E51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>151</v>
       </c>
       <c r="D54">
         <v>37</v>
       </c>
       <c r="E54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="9" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="B57" t="s">
         <v>154</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>155</v>
-      </c>
-      <c r="C57" t="s">
-        <v>156</v>
       </c>
       <c r="D57">
         <v>12</v>
       </c>
       <c r="E57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="B66" t="s">
         <v>161</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>163</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
